--- a/sample_file/sample-receivable.xlsx
+++ b/sample_file/sample-receivable.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\audit_sampling\sample_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A460024-4F8C-416C-924F-B8E6A5590253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D3CDC3-9DB3-468A-BED8-120F20BFDABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample-receivable" sheetId="1" r:id="rId1"/>
+    <sheet name="テーブル1" sheetId="2" r:id="rId2"/>
+    <sheet name="テーブル2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
   <si>
     <t>株式会社0001</t>
   </si>
@@ -933,6 +935,10 @@
     <rPh sb="0" eb="3">
       <t>カイシャメイ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>te</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1890,7 +1896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -4306,4 +4312,38 @@
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2264CAEB-2BA7-4BF5-A35C-FC3DFD0C6AEB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B850FC8-4C41-4D23-8699-2E2497E4EC1C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sample_file/sample-receivable.xlsx
+++ b/sample_file/sample-receivable.xlsx
@@ -8,21 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\audit_sampling\sample_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D3CDC3-9DB3-468A-BED8-120F20BFDABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775FFCF7-678F-40F0-94C7-9AA2B1E56945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="2730" windowWidth="24045" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample-receivable" sheetId="1" r:id="rId1"/>
-    <sheet name="テーブル1" sheetId="2" r:id="rId2"/>
-    <sheet name="テーブル2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
   <si>
     <t>株式会社0001</t>
   </si>
@@ -935,10 +933,6 @@
     <rPh sb="0" eb="3">
       <t>カイシャメイ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>te</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1896,9 +1890,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -4306,40 +4306,6 @@
       </c>
       <c r="B301" s="1">
         <v>90000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2264CAEB-2BA7-4BF5-A35C-FC3DFD0C6AEB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="18"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B850FC8-4C41-4D23-8699-2E2497E4EC1C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>
